--- a/Result/LSTM Multi/Service/JPN.xlsx
+++ b/Result/LSTM Multi/Service/JPN.xlsx
@@ -399,7 +399,7 @@
         <v>1994</v>
       </c>
       <c r="B2">
-        <v>23.46921539563932</v>
+        <v>62.93174163037728</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1995</v>
       </c>
       <c r="B3">
-        <v>23.47176597231475</v>
+        <v>63.21285779605014</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <v>23.36115643732072</v>
+        <v>63.17784622922347</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <v>23.35048737419174</v>
+        <v>64.17246838994498</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <v>22.83664375633507</v>
+        <v>64.90407968426315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <v>22.40186384416154</v>
+        <v>65.81276456014629</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <v>22.45220880818845</v>
+        <v>66.02064145432622</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>2001</v>
       </c>
       <c r="B9">
-        <v>21.11971716938407</v>
+        <v>67.06628127810217</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <v>20.71470204605068</v>
+        <v>68.33286080063881</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>20.91713129374546</v>
+        <v>68.71535813405613</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>2004</v>
       </c>
       <c r="B12">
-        <v>21.12059121924424</v>
+        <v>68.98968248826172</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>21.42337238571039</v>
+        <v>69.47396470638607</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <v>21.3992856851895</v>
+        <v>69.44979372917251</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <v>21.87550588124908</v>
+        <v>69.56041712522416</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>2008</v>
       </c>
       <c r="B16">
-        <v>21.27403122026707</v>
+        <v>70.26145846397984</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>19.04768350970545</v>
+        <v>71.91070646367305</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <v>20.76620089862018</v>
+        <v>70.54419653330581</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>2011</v>
       </c>
       <c r="B19">
-        <v>19.53555430517587</v>
+        <v>71.69112244493857</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>19.66670842701939</v>
+        <v>71.74712328115686</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <v>19.32903165437587</v>
+        <v>71.62077261163049</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>2014</v>
       </c>
       <c r="B22">
-        <v>19.59360923342026</v>
+        <v>70.88402134881488</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <v>20.46247037584918</v>
+        <v>69.79553086310989</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <v>20.2880385682684</v>
+        <v>69.8870573141604</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>20.2932243347168</v>
+        <v>69.86481475830078</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -612,7 +612,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>20.40936660766602</v>
+        <v>69.71483612060547</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -620,7 +620,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>20.56945419311523</v>
+        <v>69.58455657958984</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -628,7 +628,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>20.73076248168945</v>
+        <v>69.52789306640625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -636,7 +636,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>20.81408500671387</v>
+        <v>69.56558990478516</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +665,7 @@
         <v>1994</v>
       </c>
       <c r="B2">
-        <v>23.46921539563932</v>
+        <v>62.93174163037728</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -673,7 +673,7 @@
         <v>1995</v>
       </c>
       <c r="B3">
-        <v>23.47176597231475</v>
+        <v>63.21285779605014</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -681,7 +681,7 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <v>23.36115643732072</v>
+        <v>63.17784622922347</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -689,7 +689,7 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <v>23.35048737419174</v>
+        <v>64.17246838994498</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -697,7 +697,7 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <v>22.83664375633507</v>
+        <v>64.90407968426315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -705,7 +705,7 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <v>22.40186384416154</v>
+        <v>65.81276456014629</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -713,7 +713,7 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <v>22.45220880818845</v>
+        <v>66.02064145432622</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -721,7 +721,7 @@
         <v>2001</v>
       </c>
       <c r="B9">
-        <v>21.11971716938407</v>
+        <v>67.06628127810217</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -729,7 +729,7 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <v>20.71470204605068</v>
+        <v>68.33286080063881</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -737,7 +737,7 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>20.91713129374546</v>
+        <v>68.71535813405613</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -745,7 +745,7 @@
         <v>2004</v>
       </c>
       <c r="B12">
-        <v>21.12059121924424</v>
+        <v>68.98968248826172</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -753,7 +753,7 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>21.42337238571039</v>
+        <v>69.47396470638607</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -761,7 +761,7 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <v>21.3992856851895</v>
+        <v>69.44979372917251</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -769,7 +769,7 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <v>21.87550588124908</v>
+        <v>69.56041712522416</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -777,7 +777,7 @@
         <v>2008</v>
       </c>
       <c r="B16">
-        <v>21.27403122026707</v>
+        <v>70.26145846397984</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -785,7 +785,7 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>19.04768350970545</v>
+        <v>71.91070646367305</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -793,7 +793,7 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <v>20.76620089862018</v>
+        <v>70.54419653330581</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -801,7 +801,7 @@
         <v>2011</v>
       </c>
       <c r="B19">
-        <v>19.53555430517587</v>
+        <v>71.69112244493857</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -809,7 +809,7 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>19.66670842701939</v>
+        <v>71.74712328115686</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -817,7 +817,7 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <v>19.32903165437587</v>
+        <v>71.62077261163049</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -825,7 +825,7 @@
         <v>2014</v>
       </c>
       <c r="B22">
-        <v>19.59360923342026</v>
+        <v>70.88402134881488</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -833,7 +833,7 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <v>20.46247037584918</v>
+        <v>69.79553086310989</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -841,7 +841,7 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <v>20.2880385682684</v>
+        <v>69.8870573141604</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -849,7 +849,7 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>20.43594606860216</v>
+        <v>69.53577556669734</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -857,7 +857,7 @@
         <v>2018</v>
       </c>
       <c r="B26">
-        <v>20.61976962533107</v>
+        <v>69.43251929106526</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -865,7 +865,7 @@
         <v>2019</v>
       </c>
       <c r="B27">
-        <v>20.05877621706484</v>
+        <v>69.41674282423787</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -873,7 +873,7 @@
         <v>2020</v>
       </c>
       <c r="B28">
-        <v>19.74777174028171</v>
+        <v>69.46539977114418</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -881,7 +881,7 @@
         <v>2021</v>
       </c>
       <c r="B29">
-        <v>19.13380404390768</v>
+        <v>71.01676140684715</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +910,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>20.06976127624512</v>
+        <v>71.46810913085938</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -918,7 +918,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>20.2654972076416</v>
+        <v>70.96350860595703</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -926,7 +926,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>20.50017547607422</v>
+        <v>70.82186126708984</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -934,7 +934,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>20.70887565612793</v>
+        <v>70.69461059570312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -942,7 +942,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>20.82996940612793</v>
+        <v>70.91435241699219</v>
       </c>
     </row>
   </sheetData>
